--- a/data/trans_camb/P0902-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,95</t>
+          <t>-3,44; 4,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,15</t>
+          <t>-3,13; 0,57</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-8,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-37,71%</t>
+          <t>-46,95%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,39; 145,24</t>
+          <t>-69,68; 130,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 52,35</t>
+          <t>-81,85; 31,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,43</t>
+          <t>1,51; 8,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,12</t>
+          <t>-5,35; 0,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,62</t>
+          <t>-1,15; 3,41</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>179,25%</t>
+          <t>176,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,17%</t>
+          <t>-33,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>25,23%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,94; 450,72</t>
+          <t>33,27; 444,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 22,41</t>
+          <t>-64,6; 12,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 91,92</t>
+          <t>-20,08; 82,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,93</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,38</t>
+          <t>-0,54; 5,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,89</t>
+          <t>-1,3; 4,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,21</t>
+          <t>-0,38; 3,99</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>45,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>29,17%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 157,67</t>
+          <t>-12,25; 153,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 75,68</t>
+          <t>-13,04; 74,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 70,81</t>
+          <t>-6,74; 68,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,77</t>
+          <t>-3,65; 7,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 6,29</t>
+          <t>-2,44; 5,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,53</t>
+          <t>-4,4; 4,89</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77,57%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>19,05%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,57; 162,89</t>
+          <t>-41,96; 125,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 60,11</t>
+          <t>-16,18; 49,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,85; 77,65</t>
+          <t>-33,96; 54,53</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>6,14</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,57; 9,77</t>
+          <t>0,53; 9,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,56</t>
+          <t>2,37; 11,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 9,7</t>
+          <t>2,77; 9,65</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>44,42%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>42,06%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,22; 88,32</t>
+          <t>2,76; 87,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,83; 90,85</t>
+          <t>13,02; 89,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,57; 77,12</t>
+          <t>17,0; 76,77</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>12,92</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-5,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,57; 14,33</t>
+          <t>0,5; 13,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 5,11</t>
+          <t>-6,0; 5,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 4,35</t>
+          <t>-5,54; 5,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,65; 18,17</t>
+          <t>0,65; 14,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,13; 13,14</t>
+          <t>-4,67; 9,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 7,8</t>
+          <t>-25,74; 0,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,73</t>
+          <t>2,65; 11,9</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,48; 8,07</t>
+          <t>-3,06; 6,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 4,91</t>
+          <t>-14,89; 1,06</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>44,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>-36,17%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>-23,12%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,15; 69,33</t>
+          <t>0,38; 98,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 23,85</t>
+          <t>-31,33; 43,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 20,68</t>
+          <t>-27,55; 39,34</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>19,32; 55,08</t>
+          <t>1,88; 54,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,62; 39,99</t>
+          <t>-14,08; 35,78</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 23,06</t>
+          <t>-78,48; 1,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,26; 50,66</t>
+          <t>10,95; 56,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,19; 27,93</t>
+          <t>-11,61; 30,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 16,63</t>
+          <t>-60,62; 4,78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>6,26</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,26</t>
+          <t>2,18; 19,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,39</t>
+          <t>-9,91; 6,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,16</t>
+          <t>-9,87; 5,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,02</t>
+          <t>9,22; 25,28</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,98</t>
+          <t>3,14; 18,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,47</t>
+          <t>4,89; 18,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,32</t>
+          <t>8,29; 20,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,37</t>
+          <t>1,02; 12,68</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,97</t>
+          <t>0,95; 11,1</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>57,76%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>15,91%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>4,85; 67,59</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 23,45</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-24,86; 20,22</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>19,95; 66,27</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 50,69</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 49,13</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>19,79; 54,67</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 34,93</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 31,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 4,26</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 2,39</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 5,29</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 7,02</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 4,98</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 5,5</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 5,32</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 3,37</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 4,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>34,65%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>45,13%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>36,77%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>24,08%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>36,14%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>31,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>15,92; 55,59</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-2,93; 31,85</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>34,79; 83,17</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 69,38</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>21,89; 51,02</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>7,98; 36,11</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>16,78; 47,11</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 40,14</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>24,18; 48,43</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>7,97; 30,45</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>28,3; 54,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 45,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P0902-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,6</t>
+          <t>-1,43; 2,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,58</t>
+          <t>-2,32; 1,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -1,08</t>
+          <t>-4,0; -1,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,74</t>
+          <t>-2,58; 2,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,26</t>
+          <t>-3,74; 1,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,4</t>
+          <t>-3,67; 3,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,1</t>
+          <t>-1,47; 2,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,63</t>
+          <t>-2,34; 0,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,57</t>
+          <t>-3,18; 0,39</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 205,35</t>
+          <t>-50,74; 204,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,57; 112,9</t>
+          <t>-72,73; 132,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 93,85</t>
+          <t>-47,8; 99,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,46; 51,58</t>
+          <t>-64,83; 41,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 130,33</t>
+          <t>-74,53; 117,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 85,16</t>
+          <t>-36,86; 84,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 32,89</t>
+          <t>-57,72; 25,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 31,79</t>
+          <t>-80,55; 24,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,53</t>
+          <t>-1,16; 2,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,03</t>
+          <t>-0,87; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,36</t>
+          <t>1,72; 8,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 0,84</t>
+          <t>-4,67; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,31</t>
+          <t>-4,55; 1,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,75</t>
+          <t>-5,51; 0,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,03</t>
+          <t>-2,22; 1,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,59</t>
+          <t>-1,87; 1,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,41</t>
+          <t>-0,99; 3,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 158,66</t>
+          <t>-38,82; 137,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 160,55</t>
+          <t>-28,59; 147,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,27; 444,98</t>
+          <t>46,33; 434,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 16,3</t>
+          <t>-56,29; 19,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 23,18</t>
+          <t>-54,27; 19,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,6; 12,78</t>
+          <t>-66,97; 16,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 25,93</t>
+          <t>-40,42; 27,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 41,58</t>
+          <t>-35,28; 40,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 82,79</t>
+          <t>-18,62; 87,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,05</t>
+          <t>-1,19; 3,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,71</t>
+          <t>-2,91; 1,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,27</t>
+          <t>-0,71; 5,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,0</t>
+          <t>-0,12; 6,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 2,34</t>
+          <t>-3,76; 2,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,82</t>
+          <t>-0,99; 5,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,11</t>
+          <t>-0,0; 4,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,24</t>
+          <t>-2,56; 1,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,99</t>
+          <t>-0,11; 4,17</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 115,45</t>
+          <t>-21,04; 108,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 51,84</t>
+          <t>-50,2; 55,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 153,14</t>
+          <t>-13,54; 147,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 88,72</t>
+          <t>-1,13; 89,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 34,01</t>
+          <t>-37,36; 29,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 74,53</t>
+          <t>-9,87; 75,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 74,73</t>
+          <t>-0,9; 71,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 24,39</t>
+          <t>-34,44; 20,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 68,81</t>
+          <t>-0,63; 74,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,34</t>
+          <t>-1,84; 4,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,64</t>
+          <t>-0,99; 5,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 7,45</t>
+          <t>-3,77; 7,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 6,82</t>
+          <t>-1,54; 6,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,7</t>
+          <t>-4,26; 3,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 5,44</t>
+          <t>-1,97; 5,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,64</t>
+          <t>-1,2; 4,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,59</t>
+          <t>-1,45; 3,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,89</t>
+          <t>-3,73; 4,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 85,41</t>
+          <t>-22,3; 83,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 112,97</t>
+          <t>-12,79; 107,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,96; 125,66</t>
+          <t>-41,75; 123,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 61,59</t>
+          <t>-10,35; 59,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 33,92</t>
+          <t>-27,98; 35,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 49,67</t>
+          <t>-13,91; 52,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 53,58</t>
+          <t>-11,0; 50,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 41,51</t>
+          <t>-12,78; 43,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 54,53</t>
+          <t>-34,59; 55,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,98</t>
+          <t>-2,93; 6,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 2,72</t>
+          <t>-6,36; 2,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,7</t>
+          <t>0,91; 10,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,58; 17,77</t>
+          <t>6,35; 17,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 13,58</t>
+          <t>2,05; 13,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,37; 11,45</t>
+          <t>2,22; 11,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,91</t>
+          <t>3,29; 10,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,53</t>
+          <t>-0,7; 6,9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,65</t>
+          <t>2,86; 9,11</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 65,5</t>
+          <t>-17,85; 63,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 24,89</t>
+          <t>-39,77; 27,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,76; 87,44</t>
+          <t>4,61; 88,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>34,24; 137,82</t>
+          <t>33,65; 135,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,32; 106,96</t>
+          <t>10,22; 100,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,02; 89,6</t>
+          <t>12,55; 90,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,05; 83,53</t>
+          <t>19,43; 83,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 49,74</t>
+          <t>-3,81; 53,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,0; 76,77</t>
+          <t>17,33; 71,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 13,38</t>
+          <t>1,26; 15,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,68</t>
+          <t>-6,21; 6,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 5,21</t>
+          <t>-4,61; 5,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,65; 14,43</t>
+          <t>1,33; 14,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 9,18</t>
+          <t>-3,29; 10,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 0,37</t>
+          <t>-25,13; 0,79</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,9</t>
+          <t>2,12; 11,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 6,45</t>
+          <t>-3,1; 5,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 1,06</t>
+          <t>-15,41; 0,67</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,38; 98,08</t>
+          <t>6,15; 115,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 43,52</t>
+          <t>-31,22; 45,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 39,34</t>
+          <t>-23,59; 38,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,88; 54,6</t>
+          <t>4,05; 55,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 35,78</t>
+          <t>-10,31; 42,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,48; 1,23</t>
+          <t>-75,89; 3,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,95; 56,74</t>
+          <t>7,89; 53,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 30,42</t>
+          <t>-12,2; 28,11</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 4,78</t>
+          <t>-59,88; 2,86</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,18; 19,97</t>
+          <t>1,47; 19,48</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 6,74</t>
+          <t>-10,05; 7,58</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 5,79</t>
+          <t>-9,73; 5,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,22; 25,28</t>
+          <t>8,96; 24,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,14; 18,94</t>
+          <t>2,23; 18,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,89; 18,31</t>
+          <t>5,4; 18,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,29; 20,12</t>
+          <t>8,25; 20,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,02; 12,68</t>
+          <t>0,87; 12,29</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,95; 11,1</t>
+          <t>1,15; 11,4</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4,85; 67,59</t>
+          <t>3,35; 65,09</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 23,45</t>
+          <t>-26,73; 26,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 20,22</t>
+          <t>-24,78; 19,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>19,95; 66,27</t>
+          <t>19,6; 66,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,89; 50,69</t>
+          <t>4,57; 49,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>10,35; 49,13</t>
+          <t>11,42; 50,88</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,79; 54,67</t>
+          <t>19,46; 57,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,33; 34,93</t>
+          <t>2,12; 34,17</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2,22; 31,02</t>
+          <t>2,73; 31,54</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,26</t>
+          <t>1,47; 4,35</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,39</t>
+          <t>-0,28; 2,43</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,29</t>
+          <t>1,2; 5,4</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,02</t>
+          <t>3,68; 7,11</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,98</t>
+          <t>1,43; 4,93</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,5</t>
+          <t>0,03; 5,58</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,32</t>
+          <t>2,97; 5,33</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,37</t>
+          <t>0,93; 3,26</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,98</t>
+          <t>1,62; 5,05</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>15,92; 55,59</t>
+          <t>16,59; 58,76</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 31,85</t>
+          <t>-3,37; 32,78</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>10,32; 69,38</t>
+          <t>15,05; 71,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>21,89; 51,02</t>
+          <t>23,56; 52,01</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,98; 36,11</t>
+          <t>9,47; 35,94</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,18; 40,14</t>
+          <t>0,66; 39,64</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>24,18; 48,43</t>
+          <t>24,65; 48,13</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>7,97; 30,45</t>
+          <t>7,96; 30,04</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>12,8; 45,81</t>
+          <t>13,69; 45,96</t>
         </is>
       </c>
     </row>
